--- a/FowlerModule07-2.xlsx
+++ b/FowlerModule07-2.xlsx
@@ -1,17 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28609"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a29b2a034b341cc7/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_91CFC0D1AC14FF54B9F82DAA1FD88D88FE2D8A25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09312DF2-5B4C-43E9-9F6D-6C67DB2DD9F8}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Microprocessor" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Microprocessor" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart" sheetId="2" r:id="rId2"/>
+    <sheet name="Thoughts" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,48 +41,116 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t xml:space="preserve">Microprocessor Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Chip Introduced</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+  <si>
+    <t>Microprocessor Data</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>New Chip Introduced</t>
+  </si>
+  <si>
+    <t>While the chart created by excel was satisfactory.  I prefer these that I made with seaborn</t>
+  </si>
+  <si>
+    <t>I was unable to come up with a simple way to show the forecasts on the Excel plots.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also, the regression results with python were identical to Excel.  </t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>Demand if New Chip</t>
+  </si>
+  <si>
+    <t>Demand if no New Chip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -70,11 +159,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,109 +185,1555 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="3">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Microprocessor!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>New Chip Introduced</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Microprocessor!$C$4:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9DB8-4F96-BA98-0609DC88DD1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="409970288"/>
+        <c:axId val="409969568"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Microprocessor!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demand</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Microprocessor!$A$4:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>3949</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7752</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7766</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5482</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8789</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7326</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8669</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7219</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7456</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9744</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14561</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8564</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12214</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19020</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14751</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14269</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14896</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15359</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16527</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9DB8-4F96-BA98-0609DC88DD1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Microprocessor!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Month</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Microprocessor!$B$4:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9DB8-4F96-BA98-0609DC88DD1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="626728408"/>
+        <c:axId val="626727328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="626728408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626727328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="626727328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626728408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="409969568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409970288"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="409970288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="409969568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1013CC71-7381-4F14-9498-AB4E39B001F4}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="82" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8677043" cy="6295793"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B6537E6-5FDB-9137-0F07-8A8D0BD8E46E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{022BEB54-4B07-1C4B-EF6E-330D608BF5C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="762000"/>
+          <a:ext cx="4572000" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20DB248A-9919-3808-7ACF-C9D5EBC9FE76}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{022BEB54-4B07-1C4B-EF6E-330D608BF5C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="3810000"/>
+          <a:ext cx="4572000" cy="2876550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E19B5A1-AA73-D3BE-C79D-F72238ADDA0B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{20DB248A-9919-3808-7ACF-C9D5EBC9FE76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="6858000"/>
+          <a:ext cx="4572000" cy="2876550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65078CFE-6698-4BEB-7900-DBCD9F5374ED}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4E19B5A1-AA73-D3BE-C79D-F72238ADDA0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="1143000"/>
+          <a:ext cx="6000750" cy="4124325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -195,12 +1741,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -229,7 +1775,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -250,7 +1796,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -301,7 +1847,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -319,40 +1865,39 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="7.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.72"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="1" width="8.71"/>
+    <col min="1" max="2" width="7.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -363,277 +1908,563 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
         <v>3949</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
         <v>3544</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
         <v>6138</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
         <v>7752</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
         <v>10700</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
         <v>7766</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
         <v>5482</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
         <v>8789</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
         <v>13103</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
         <v>7326</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
         <v>8669</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
         <v>7219</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
         <v>7456</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="1">
         <v>13</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
         <v>9744</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="1">
         <v>14</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
         <v>14561</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
         <v>8564</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="1">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
         <v>12214</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="1">
         <v>17</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
         <v>19020</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="1">
         <v>18</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
         <v>14751</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="1">
         <v>19</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
         <v>14269</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
         <v>14896</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="1">
         <v>21</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
         <v>15359</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="1">
         <v>22</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
         <v>16527</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="1">
         <v>23</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
         <v>17029</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="1">
         <v>24</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="true" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A4DB88-BAA8-425A-8660-BF3B0731B1DA}">
+  <dimension ref="B3:Q51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="9:10">
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="9:10">
+      <c r="I32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="9:17">
+      <c r="I33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.94426682886251911</v>
+      </c>
+    </row>
+    <row r="34" spans="9:17">
+      <c r="I34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0.8916398440900779</v>
+      </c>
+    </row>
+    <row r="35" spans="9:17">
+      <c r="I35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.88131982924151386</v>
+      </c>
+    </row>
+    <row r="36" spans="9:17">
+      <c r="I36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="5">
+        <v>1513.4593945890606</v>
+      </c>
+    </row>
+    <row r="37" spans="9:17">
+      <c r="I37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="9:17">
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="9:17">
+      <c r="I40" s="7"/>
+      <c r="J40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="9:17">
+      <c r="I41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="5">
+        <v>2</v>
+      </c>
+      <c r="K41" s="5">
+        <v>395804463.83786577</v>
+      </c>
+      <c r="L41" s="5">
+        <v>197902231.91893288</v>
+      </c>
+      <c r="M41" s="5">
+        <v>86.399085386407791</v>
+      </c>
+      <c r="N41" s="5">
+        <v>7.3473549810921285E-11</v>
+      </c>
+    </row>
+    <row r="42" spans="9:17">
+      <c r="I42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="5">
+        <v>21</v>
+      </c>
+      <c r="K42" s="5">
+        <v>48101746.120467611</v>
+      </c>
+      <c r="L42" s="5">
+        <v>2290559.3390698861</v>
+      </c>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="9:17">
+      <c r="I43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" s="6">
+        <v>23</v>
+      </c>
+      <c r="K43" s="6">
+        <v>443906209.95833337</v>
+      </c>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+    </row>
+    <row r="45" spans="9:17">
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="9:17">
+      <c r="I46" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" s="5">
+        <v>3097.1830057526386</v>
+      </c>
+      <c r="K46" s="5">
+        <v>658.79388718666928</v>
+      </c>
+      <c r="L46" s="5">
+        <v>4.7012928717036679</v>
+      </c>
+      <c r="M46" s="5">
+        <v>1.216909177802688E-4</v>
+      </c>
+      <c r="N46" s="5">
+        <v>1727.1461171372757</v>
+      </c>
+      <c r="O46" s="5">
+        <v>4467.2198943680014</v>
+      </c>
+      <c r="P46" s="5">
+        <v>1727.1461171372757</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>4467.2198943680014</v>
+      </c>
+    </row>
+    <row r="47" spans="9:17">
+      <c r="I47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="5">
+        <v>535.57051337923804</v>
+      </c>
+      <c r="K47" s="5">
+        <v>44.681966306573599</v>
+      </c>
+      <c r="L47" s="5">
+        <v>11.986278976725449</v>
+      </c>
+      <c r="M47" s="5">
+        <v>7.436882009567312E-11</v>
+      </c>
+      <c r="N47" s="5">
+        <v>442.64927763843184</v>
+      </c>
+      <c r="O47" s="5">
+        <v>628.49174912004423</v>
+      </c>
+      <c r="P47" s="5">
+        <v>442.64927763843184</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>628.49174912004423</v>
+      </c>
+    </row>
+    <row r="48" spans="9:17">
+      <c r="I48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="6">
+        <v>4955.8634620413131</v>
+      </c>
+      <c r="K48" s="6">
+        <v>829.93068927020249</v>
+      </c>
+      <c r="L48" s="6">
+        <v>5.9714184884514143</v>
+      </c>
+      <c r="M48" s="6">
+        <v>6.3059520281737386E-6</v>
+      </c>
+      <c r="N48" s="6">
+        <v>3229.9281104706138</v>
+      </c>
+      <c r="O48" s="6">
+        <v>6681.798813612013</v>
+      </c>
+      <c r="P48" s="6">
+        <v>3229.9281104706138</v>
+      </c>
+      <c r="Q48" s="6">
+        <v>6681.798813612013</v>
+      </c>
+    </row>
+    <row r="50" spans="9:11">
+      <c r="I50" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K50">
+        <f>J46+(J47*25)+(J48*1)</f>
+        <v>21442.309302274902</v>
+      </c>
+    </row>
+    <row r="51" spans="9:11">
+      <c r="I51" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51">
+        <f>J46+(J47*25)+(J48*0)</f>
+        <v>16486.445840233588</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>